--- a/李雨竹/暄暄移动端测试用例.xlsx
+++ b/李雨竹/暄暄移动端测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="7730"/>
+    <workbookView windowWidth="19410" windowHeight="7840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
   <si>
     <t>用例编号</t>
   </si>
@@ -411,36 +411,6 @@
   </si>
   <si>
     <t>可选联系人是为联系人列表中全部人员</t>
-  </si>
-  <si>
-    <t>lyz021</t>
-  </si>
-  <si>
-    <t>lyz022</t>
-  </si>
-  <si>
-    <t>lyz023</t>
-  </si>
-  <si>
-    <t>lyz024</t>
-  </si>
-  <si>
-    <t>lyz025</t>
-  </si>
-  <si>
-    <t>lyz026</t>
-  </si>
-  <si>
-    <t>lyz027</t>
-  </si>
-  <si>
-    <t>lyz028</t>
-  </si>
-  <si>
-    <t>lyz029</t>
-  </si>
-  <si>
-    <t>lyz030</t>
   </si>
 </sst>
 </file>
@@ -448,8 +418,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -469,6 +439,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -476,7 +453,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,46 +489,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,34 +513,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,6 +543,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -612,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,7 +603,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,181 +777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,6 +808,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,32 +851,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,11 +879,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,15 +909,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -953,10 +917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,137 +929,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,12 +1112,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1161,24 +1122,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1534,10 +1477,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1675,10 +1618,10 @@
       <c r="H4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1907,34 +1850,34 @@
       </c>
     </row>
     <row r="12" ht="70" spans="1:10">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1942,10 +1885,10 @@
       <c r="A13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1954,19 +1897,19 @@
       <c r="E13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1980,7 +1923,7 @@
       <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -2044,7 +1987,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -2178,7 +2121,7 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -2204,7 +2147,7 @@
       <c r="A21" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2216,231 +2159,71 @@
       <c r="E21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="28"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="29"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="29"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
